--- a/Expresiones_prueba.xlsx
+++ b/Expresiones_prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F3D1E8F-4A28-453F-BA8A-8B6ED7199021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F72BBC-FFA0-440C-9578-7683A8DBCB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9260E7CC-1C5D-4DF1-8370-18DDB57DB8A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="311">
   <si>
     <t>Capítulo</t>
   </si>
@@ -96,6 +96,958 @@
   </si>
   <si>
     <t>MR</t>
+  </si>
+  <si>
+    <t>01A00105</t>
+  </si>
+  <si>
+    <t>Vive en cuarto de vecindad no puede vivir en casa pagada</t>
+  </si>
+  <si>
+    <t>Si vive en un cuarto de vecindad no podría vivir en una casa propia y pagada, propia y pagándola a
+plazos y otro, ¿cuál?</t>
+  </si>
+  <si>
+    <t>P01A01 = 3 y P01B01 esta en (1,2,98)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01A01, P01B01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01A01 - El tipo de vivienda
+ P01B01 - Estado de vivienda (propia, pagada etc.) </t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>01A00106</t>
+  </si>
+  <si>
+    <t>Vivienda tipo rancho con techo robusto</t>
+  </si>
+  <si>
+    <t>Vive en rancho, únicamente puede ser techo o Paja, palma o similar</t>
+  </si>
+  <si>
+    <t>P01A01 = 4 y P01A03 esta en (1,2,3,4)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01A01, P01A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01A01 - El tipo de vivienda
+P01A03 - Material del techo
+ </t>
+  </si>
+  <si>
+    <t>01A00107</t>
+  </si>
+  <si>
+    <t>Apartamento con materiales de pared distintos a los comunes</t>
+  </si>
+  <si>
+    <t>VERIFIQUE el tipo de vivienda: Apartamento con paredes de Adobe, Madera, Lámina, Bajareque, Lepa Palo, Caña u Otro</t>
+  </si>
+  <si>
+    <t>P01A01 = 2 y P01A02 esta en (4,5,6,7,8,98)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01A01, P01A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01A01 - El tipo de vivienda
+P01A02 - Material de la pared
+ </t>
+  </si>
+  <si>
+    <t>01A00108</t>
+  </si>
+  <si>
+    <t>Ranchos con paredes robustas</t>
+  </si>
+  <si>
+    <t>El tipo de vivienda es Rancho con paredes de Ladrillo, Block o Concreto</t>
+  </si>
+  <si>
+    <t>P01A01 = 4 y P01A02 esta en (1,2,3)</t>
+  </si>
+  <si>
+    <t>01A00109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa formal con techo de rancho </t>
+  </si>
+  <si>
+    <t>El tipo de vivienda es Casa Formal Con Techo de paja, palma o similar</t>
+  </si>
+  <si>
+    <t>P01A01 = 1 y P01A03 = 5</t>
+  </si>
+  <si>
+    <t>01A00110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento con techo de rancho </t>
+  </si>
+  <si>
+    <t>El tipo de vivienda es Apartamento y Techo de paja, palma o similar</t>
+  </si>
+  <si>
+    <t>P01A01 = 2 y P01A03 = 5</t>
+  </si>
+  <si>
+    <t>01A00112</t>
+  </si>
+  <si>
+    <t>Tipo de vivienda improvisada y pagada a plazos o alquilada</t>
+  </si>
+  <si>
+    <t>Casa Improvisada y Es Pagada a Plazos o Alquilada</t>
+  </si>
+  <si>
+    <t>P01A01 = 5 y P01B01 esta en (2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01A01 - El tipo de vivienda
+P01B01 - Estado de vivienda (propia, pagada etc.)
+ </t>
+  </si>
+  <si>
+    <t>01A00501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No esta conectada a una red de agua, pero si tiene contador de agua </t>
+  </si>
+  <si>
+    <t>No Tiene Distribución de Agua y Si Tiene Contador de Agua</t>
+  </si>
+  <si>
+    <t>P01A05A = 2 y P01A05E = 1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01A05A, P01A05E</t>
+  </si>
+  <si>
+    <t>P01A05A - Red de distribución de agua
+P01A05E - Contador de agua</t>
+  </si>
+  <si>
+    <t>01A00502</t>
+  </si>
+  <si>
+    <t>No esta conectada a una red de energia electrica y tiene contador de luz</t>
+  </si>
+  <si>
+    <t>No Tiene Distribución de Energía Eléctrica y Tiene Contador de Electricidad</t>
+  </si>
+  <si>
+    <t>P01A05C = 2 y P01A05F = 1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01A05C, P01A05F</t>
+  </si>
+  <si>
+    <t>P01A05C - Conexión a energía eléctrica
+P01A05F - Contadore de energía eléctrica</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>01C00101</t>
+  </si>
+  <si>
+    <t>No realizo mejoras en su vivienda , pero si hay respuesta en que tipos de mejoras realizo en la vivienda</t>
+  </si>
+  <si>
+    <t>Selecciono que realizó alguna mejoras a su vivienda, pero no contesto si en los últimos doce meses lo realizaron</t>
+  </si>
+  <si>
+    <t>P01C01 = 2 y (P01C02A está en (1,2)  o P01C02B está en (1,2) o P01C02C está en (1,2) o P01C02D está en (1,2) o P01C02E está en (1,2) o P01C02F está en (1,2) o P01C02G está en (1,2) o P01C02H = 1 o P01C02I está en (1,2) o P01C02J está en (1,2) o P01C02K está en (1,2) o P01C02L está en (1,2) o P01C02M está en (1,2))</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01C01, P01C02A, P01C02B, P01C02C, P01C02D, P01C02E, P01C02F, P01C02G, P01C02H, P01C02I, P01C02J, P01C02K, P01C02L, P01C02M</t>
+  </si>
+  <si>
+    <t>P01C01 - En los últimos doce meses hicieron mejoras
+P01C02A - construyeron otro nivel?
+P01C02B - construyeron cuartos?
+P01C02C - cercas/muros?
+P01C02D - construyeron terrazas?
+P01C02E - cambiaron techos?
+P01C02F - cambiaron piso?
+P01C02G - cambiaron paredes?
+P01C02H - cambiaron puertas?
+P01C02I - cambiaron ventanas?
+P01C02J - instalaron servicio sanitario?
+P01C02K - instalaron depósito de agua?
+P01C02L - instalaron aparatos de seguridad?
+P01C02M - otro, ¿cuál?</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>01D00602</t>
+  </si>
+  <si>
+    <t>Si indica que obtiene el agua en las opciones (3:7,98), se verifica que el resto de preguntas no contenga informacion hasta la pregunta numero 12</t>
+  </si>
+  <si>
+    <t>Si selecciona una opcion de rango (3:7,98) en pregunta sobre "De dónde obtienen principalmente el agua para consumo", se verifica que el resto de preguntas sean distinto a vacio hasta la pregunta 12</t>
+  </si>
+  <si>
+    <t>(P01D06 esta en (3,4,5,6,7,98)) y (P01D07 esta en (1,2) o P01D08 esta en (1,2,3) o P01D09 &gt;= 1 o P01D10 &gt;= 1 o P01D11 &gt;= 1)</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D06, P01D07, P01D08, P01D09, P01D10, P01D11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D06 - De dónde obtienen principalmente el agua para consumo
+P01D07 - El servicio de agua es de uso exclusivo o general
+P01D08 -El servicio de agua es público o privado
+P01D09 - Cuánto pagó el mes pasado por el servicio de agua
+P01D10 - durante cuántos días completos NO TUVO agua
+P01D11 - cuántas horas al día TUVO agua </t>
+  </si>
+  <si>
+    <t>01D00901</t>
+  </si>
+  <si>
+    <t>Si el servicio de agua es privada o de comité, debe pagar por lo menos una cuota o valor</t>
+  </si>
+  <si>
+    <t>El servicio de agua es privada o de comité, debe pagar una cuota determinada</t>
+  </si>
+  <si>
+    <t>P01D08 = 2 y P01D09 &lt;= 0</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D08, P01D09</t>
+  </si>
+  <si>
+    <t>P01D08 - El servicio de agua es público o privado
+P01D09 - Cuánto pagó el mes pasado por el servicio de agua</t>
+  </si>
+  <si>
+    <t>01D01101</t>
+  </si>
+  <si>
+    <t>No puede superar las 24 horas el promedio de horas que el hogar tuvo agua.</t>
+  </si>
+  <si>
+    <t>No puede superar las 24 horas, el promedio de horas que el hogar tuvo agua.</t>
+  </si>
+  <si>
+    <t>P01D11 &gt; 24</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D11</t>
+  </si>
+  <si>
+    <t>P01D11 - El mes pasado, ¿cuántas horas al día TUVO agua? (promedio)</t>
+  </si>
+  <si>
+    <t>01D01201</t>
+  </si>
+  <si>
+    <t>Si indica que la distancia es 0, las preguntas (13,14) no deberia tener información</t>
+  </si>
+  <si>
+    <t>Si la distancia es mayor a 0 no debió haber respondido las preguntas 13 y 14</t>
+  </si>
+  <si>
+    <t>P01D12 = 0 y ((P01D13A &gt; 0 ó P01D13B &gt; 0) o P01D14 esta en (1,2,3,4,5,98))</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D12, P01D13A, P01D13B, P01D14</t>
+  </si>
+  <si>
+    <t>P01D12 - qué distancia de la vivienda (en metros), se encuentra el lugar donde traen el agua
+P01D13A - Cuántas horas le toma por viaje ida y vuelta, transportar el agua a su vivienda
+P01D13B - Cuántos minutos le toma por viaje ida y vuelta, transportar el agua a su vivienda
+P01D14 - Cómo transporta principalmente el agua a su vivienda</t>
+  </si>
+  <si>
+    <t>01D01501</t>
+  </si>
+  <si>
+    <t>Si compró agua de sisterna, pero no reporta cuanto pago</t>
+  </si>
+  <si>
+    <t>P01D15A = 1 y P01D15B &lt; 0</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D15A, P01D15B</t>
+  </si>
+  <si>
+    <t>P01D15A - el mes pasado, ¿compró o utilizó agua de un camión cisterna?
+P01D15B - ¿Cuánto pagó?</t>
+  </si>
+  <si>
+    <t>01D01502</t>
+  </si>
+  <si>
+    <t>No compró agua de sisterna, pero si reporta cuanto pago</t>
+  </si>
+  <si>
+    <t>P01D15A = 2 y P01D15B &gt; 0</t>
+  </si>
+  <si>
+    <t>01D01701</t>
+  </si>
+  <si>
+    <t>Tiene inodoro conectado a red de drenajes, pero su hogar no esta conectada a una red de drenajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D17 = 1 y P01A05B = 2 </t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01A05B, P01D17</t>
+  </si>
+  <si>
+    <t>P01D17 - Qué tipo de servicio sanitario tiene este hogar
+P01A05B -  Esta vivienda esta conectada a una red de drenajes</t>
+  </si>
+  <si>
+    <t>01D01702</t>
+  </si>
+  <si>
+    <t>Indica que no tiene inodoro y la pregunta (18) no deberia tener informacion</t>
+  </si>
+  <si>
+    <t>No tiene inodoro, y la pregunta (18) no es vacia</t>
+  </si>
+  <si>
+    <t>P01D17 = 5 y P01D18 esta en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D17, P01D18</t>
+  </si>
+  <si>
+    <t>P01D17  -  Qué tipo de servicio sanitario tiene este hogar
+P01D18 - El servicio sanitario es exclusivo o general</t>
+  </si>
+  <si>
+    <t>01D02001</t>
+  </si>
+  <si>
+    <t>Indico que el hogar si tiene plan residencial y no reporta cuanto pago</t>
+  </si>
+  <si>
+    <t>(P01D20A = 1 y P01D21A &lt;= 0)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D20A, P01D21A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D20A - Tiene el hogar servicio de: plan residencial
+P01D21A - Cuánto pagó de paquete residencial
+</t>
+  </si>
+  <si>
+    <t>01D02002</t>
+  </si>
+  <si>
+    <t>Indico que el hogar si tiene telefono fijo y no reporta cuanto pago</t>
+  </si>
+  <si>
+    <t>(P01D20B = 1  y P01D21B &lt;= 0)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D20B, P01D21B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D20B - Tiene el hogar servicio de: teléfono fijo
+P01D21B - Cuánto pagó de teléfono fijo
+</t>
+  </si>
+  <si>
+    <t>01D02201</t>
+  </si>
+  <si>
+    <t>Si respondio alguna opcion del rango (3:7,98) por lo tanto, la pregunta siguiente no deberia tener informacion</t>
+  </si>
+  <si>
+    <t>Si la respuesta esta un rango de (3:7,98) la siguiente pregunta no es vacia</t>
+  </si>
+  <si>
+    <t>P01D22 esta en (3,4,5,6,7,98) y P01D23A esta en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D22, P01D23A, P01D23B</t>
+  </si>
+  <si>
+    <t>P01D22 - Cómo elimina la mayor parte de la basura
+P01D23A - pagó por la recolección o eliminacion de basura
+P01D23B - Cuánto pagó</t>
+  </si>
+  <si>
+    <t>01D02202</t>
+  </si>
+  <si>
+    <t>Si indica que elimina la basura por servicio municipal o privado en la siguiente pregunta debe ingresar. si pago o no y cuanto cancelo.</t>
+  </si>
+  <si>
+    <t>Si la respuesta es (1,2), la siguiente pregunta es vacia</t>
+  </si>
+  <si>
+    <t>P01D22 esta en (1,2) y P01D23A no esta en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D22, P01D23A</t>
+  </si>
+  <si>
+    <t>P01D22 - Cómo elimina la mayor parte de la basura
+P01D23A - pagó por la recolección o eliminacion de basura</t>
+  </si>
+  <si>
+    <t>01D02301</t>
+  </si>
+  <si>
+    <t>Indica que si pago por eliminar la basura, pero no reporta cuanto cancelo</t>
+  </si>
+  <si>
+    <t>Si la respues es SI y no ingresa cuanto pago (es vacio)</t>
+  </si>
+  <si>
+    <t>P01D23A = 1 y P01D23B &lt; 1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D23A, P01D23B</t>
+  </si>
+  <si>
+    <t>P01D23A - pagó por la recolección o eliminacion de basura
+P01D23B - Cuánto pagó</t>
+  </si>
+  <si>
+    <t>01D02401</t>
+  </si>
+  <si>
+    <t>Si indico alguna opcion en este rango (3,4,5,6,7,98), entonce en la pregunta 24 deberia tener informacion</t>
+  </si>
+  <si>
+    <t>Al seleccionar un rango en la variable P01D22 que está en (3,4,5,6,7,98) y que no respondierón la variable P01D24</t>
+  </si>
+  <si>
+    <t>P01D22 está en (3,4,5,6,7,98) y P01D24 no esta en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D22, P01D24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D22 - 22. ¿Cómo elimina la mayor parte de la basura?
+P01D24 - 24. El mes pasado, ¿Utilizaron energía eléctrica?                                  </t>
+  </si>
+  <si>
+    <t>01D02402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores fuera de rango, la pregunta 24 solo debe estar en (1 o 2) </t>
+  </si>
+  <si>
+    <t>Valores fuera de rango</t>
+  </si>
+  <si>
+    <t>P01D24 no está en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D24</t>
+  </si>
+  <si>
+    <t>P01D24 - 24. El mes pasado, ¿Utilizaron energía eléctrica?</t>
+  </si>
+  <si>
+    <t>01D02501</t>
+  </si>
+  <si>
+    <t>Si responde que NO utiliza energia electrica, la pregunta 25 no debe tener infomacion</t>
+  </si>
+  <si>
+    <t>Se indico NO en la pregunta P01D24 y P01D25 no es vacia</t>
+  </si>
+  <si>
+    <t>P01D24 = 2 y P01D25 &gt;= 0</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D24, P01D25</t>
+  </si>
+  <si>
+    <t>P01D24 - 24. El mes pasado, ¿Utilizaron energía eléctrica?
+P01D25 - 25. El mes pasado, ¿Cuántas veces se quedó sin energía eléctrica por más de 30 minutos?</t>
+  </si>
+  <si>
+    <t>01D02502</t>
+  </si>
+  <si>
+    <t>Si responde que SI utiliza energia electrica, la pregunta 25 debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico SI en la pregunta P01D24 y P01D25 es vacia</t>
+  </si>
+  <si>
+    <t>P01D24 = 1 y P01D25 es vacio</t>
+  </si>
+  <si>
+    <t>01D02601</t>
+  </si>
+  <si>
+    <t>Si responde que NO utiliza energia electrica, la pregunta 26 no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico No en la pregunta P01D24 y P01D26 no es vacia</t>
+  </si>
+  <si>
+    <t>P01D24 = 2 y P01D26 no es vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D24, P01D26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D24 - 24. El mes pasado, ¿Utilizaron energía eléctrica?
+P01D26 - 26. El mes pasado, ¿Cuántos días continuos NO TUVO energía eléctrica?       </t>
+  </si>
+  <si>
+    <t>01D02603</t>
+  </si>
+  <si>
+    <t>Se indico "00" en la pregunta 25, entonces la pregunta 26 no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico "00" en la pregunta P01D25 y P01D26 no es vacia</t>
+  </si>
+  <si>
+    <t>P01D25 = 0 y P01D26 &gt;= 1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D25, P01D26</t>
+  </si>
+  <si>
+    <t>P01D25 - 25. El mes pasado, ¿Cuántas veces se quedó sin energía eléctrica por más de 30 minutos?
+P01D26 - 26. El mes pasado, ¿Cuántos días continuos NO TUVO energía eléctrica?</t>
+  </si>
+  <si>
+    <t>01D02701</t>
+  </si>
+  <si>
+    <t>Si responde que NO utiliza energia electrica, la pregunta 27 no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico No en la pregunta P01D24 y P01D27 no es vacia</t>
+  </si>
+  <si>
+    <t>P01D24 = 2 y P01D27 &gt;= 1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D24, P01D27</t>
+  </si>
+  <si>
+    <t>P01D24 - 24. El mes pasado, ¿Utilizaron energía eléctrica?
+P01D27 - 27. El mes pasado, ¿Cuántas horas continuas al día TUVO energía eléctrica?</t>
+  </si>
+  <si>
+    <t>01D02702</t>
+  </si>
+  <si>
+    <t>Si indico en la pregunta 25 el valor 0 entonces la pregunta 27 no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico "00" en la pregunta P01D25 y P01D27 no es vacio</t>
+  </si>
+  <si>
+    <t>P01D25 = 0 y P01D27 &gt;= 1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D25, P01D27</t>
+  </si>
+  <si>
+    <t>P01D25 - 25. El mes pasado, ¿Cuántas veces se quedó sin energía eléctrica por más de 30 minutos?
+P01D27 - 27. El mes pasado, ¿Cuántas horas continuas al día TUVO energía eléctrica?</t>
+  </si>
+  <si>
+    <t>01D02801</t>
+  </si>
+  <si>
+    <t>Si indico NO en la pregunta 24, entonces la pregunta 28 debe estar en opcion (1 ó 2)</t>
+  </si>
+  <si>
+    <t>Se indico "No" en la pregunta P01D24 y P01D28 esta vacío</t>
+  </si>
+  <si>
+    <t>P01D24 = 2 y P01D28 no esta en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D24, P01D28</t>
+  </si>
+  <si>
+    <t>P01D24 - 24. El mes pasado, ¿Utilizaron energía eléctrica?
+P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?</t>
+  </si>
+  <si>
+    <t>01D02802</t>
+  </si>
+  <si>
+    <t>Si indico 0 en la pregunta 25, entonces la pregunta 28 debe estar en opcion (1 ó 2)</t>
+  </si>
+  <si>
+    <t>Se indico "00" en la pregunta P01D25 y P01D28 esta vacío</t>
+  </si>
+  <si>
+    <t>P01D25 = 0 y P01D28 no esta en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D25, P01D28</t>
+  </si>
+  <si>
+    <t>P01D25 - 25. El mes pasado, ¿Cuántas veces se quedó sin energía eléctrica por más de 30 minutos?
+P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?</t>
+  </si>
+  <si>
+    <t>01D02803</t>
+  </si>
+  <si>
+    <t>La pregunta 28 deber estar unicamente en la opcion (1 ó 2)</t>
+  </si>
+  <si>
+    <t>Valores que no forman parte del rango (1,2) de la variable P01D28</t>
+  </si>
+  <si>
+    <t>P01D28 no está en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+                                       </t>
+  </si>
+  <si>
+    <t>01D02901</t>
+  </si>
+  <si>
+    <t>Se indico "No" en la pregunta 28 entonces la pregunta 29 no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico "No" en la pregunta P01D28 y P01D29 no es vacia</t>
+  </si>
+  <si>
+    <t>P01D28 = 2 y P01D29 esta en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28, P01D29</t>
+  </si>
+  <si>
+    <t>P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D29 - 29. El mes pasado, ¿Utilizaron estufa ahorradora?</t>
+  </si>
+  <si>
+    <t>01D02902</t>
+  </si>
+  <si>
+    <t>Se indico "SI" en la pregunta 28 entonces la pregunta 29 debe estar en opcion (1 ó 2)</t>
+  </si>
+  <si>
+    <t>Valores perdidos en la variable P01D29 al indicar "Si" en la variable P01D28</t>
+  </si>
+  <si>
+    <t>P01D28 = 1 y P01D29 no esta en (1,2)</t>
+  </si>
+  <si>
+    <t>01D03001</t>
+  </si>
+  <si>
+    <t>Se indico "NO" en la pregunta 28 entonces la pregunta 30 no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico "No" en la pregunta P01D28 y P01D30 no es vacia</t>
+  </si>
+  <si>
+    <t>P01D28 = 2 y P01D30 esta en (1,2,3,4,5,98)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28, P01D30</t>
+  </si>
+  <si>
+    <t>P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D30 - 30. El mes pasado, ¿Cómo obtuvo la leña que utilizaron?</t>
+  </si>
+  <si>
+    <t>01D03002</t>
+  </si>
+  <si>
+    <t>Se indico "SI" en la pregunta 28 entonces la pregunta 30 debe tener informacion</t>
+  </si>
+  <si>
+    <t>Valores perdidos en la variable P01D30 al indicar "Si" en la variable P01D28</t>
+  </si>
+  <si>
+    <t>P01D28 = 1 y P01D30 no esta en (1,2,3,4,5,98)</t>
+  </si>
+  <si>
+    <t>01D03004</t>
+  </si>
+  <si>
+    <t>Se indico "98 - otros cual" en la pregunta 30 y el especifique no debe estar vacio</t>
+  </si>
+  <si>
+    <t>Se indico "98" en la pregunta P01D30 y P01D30A esta vacío</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D30 = 98 y P01D30A es vacio </t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D30, P01D30A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D30 - 30. El mes pasado, ¿Cómo obtuvo la leña que utilizaron?
+P01D30A - 30.a Especifique ¿cuál?                           </t>
+  </si>
+  <si>
+    <t>01D03101</t>
+  </si>
+  <si>
+    <t>Se indico "NO" en la pregunta 28 entonces la pregunta 31A no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico "No" en la pregunta P01D28 y P01D31A no es vacia</t>
+  </si>
+  <si>
+    <t>P01D28 = 2 y P01D31A &gt;=1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28, P01D31A</t>
+  </si>
+  <si>
+    <t>P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D31A - 31.a ¿A qué distancia en metros se encuentran el lugar de donde traen, recogen o compran la leña con más frecuencia?</t>
+  </si>
+  <si>
+    <t>01D03102</t>
+  </si>
+  <si>
+    <t>Se indico "SI" en la pregunta 28 entonces la pregunta 31A debe tener informacion</t>
+  </si>
+  <si>
+    <t>Valores perdidos en la variable P01D28 al indicar "Si" en la variable P01D31A</t>
+  </si>
+  <si>
+    <t>P01D28 = 1 y P01D31A es vacio</t>
+  </si>
+  <si>
+    <t>01D03103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se indico "00" en la pregunta 31A entonces la pregunta 31B no debe tener informacion </t>
+  </si>
+  <si>
+    <t>Se indico "00" en la pregunta P01D31A y P01D31B no es vacia</t>
+  </si>
+  <si>
+    <t>P01D31A = 0 y P01D31B &gt;=1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D31A, P01D31B</t>
+  </si>
+  <si>
+    <t>P01D31A - 31.a ¿A qué distancia en metros se encuentran el lugar de donde traen, recogen o compran la leña con más frecuencia?
+P01D31B - 31.b ¿A cuántas horas se encuentra el lugar de donde traen, recogen o compran la leña con más frecuencia?</t>
+  </si>
+  <si>
+    <t>01D03104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se indico "00" en la pregunta 31A entonces la pregunta 31C no debe tener informacion </t>
+  </si>
+  <si>
+    <t>Se indico "00" en la pregunta P01D31A y P01D31C no es vacia</t>
+  </si>
+  <si>
+    <t>P01D31A = 0 y P01D31C &gt;=1</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D31A, P01D31C</t>
+  </si>
+  <si>
+    <t>P01D31A - 31.a ¿A qué distancia en metros se encuentran el lugar de donde traen, recogen o compran la leña con más frecuencia?
+P01D31C - 31.c ¿A cuántos minutos se encuentran el lugar de donde traen, recogen o compran la leña con más frecuencia?</t>
+  </si>
+  <si>
+    <t>01D03201</t>
+  </si>
+  <si>
+    <t>Si indico en la pregunta 28 "NO" ó Indica valor "0" en la pregunta 31A, entonces la pregunta 32 no deberia tener informacion</t>
+  </si>
+  <si>
+    <t>Si indico que NO uso leña el mes pasado O si registro 0 en la distancia en mt y responde que medio utiliza para transportar la leña</t>
+  </si>
+  <si>
+    <t>(P01D28 = 2 o P01D31A = 0) y P01D32 esta en (1,2,3,4,5,98)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28, P01D31A, P01D32</t>
+  </si>
+  <si>
+    <t>P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D31A - 31.a ¿A qué distancia en metros se encuentran el lugar de donde traen, recogen o compran la leña con más frecuencia?
+P01D32 - 32. ¿Qué medio utiliza para transportar la leña a su vivienda?</t>
+  </si>
+  <si>
+    <t>01D03202</t>
+  </si>
+  <si>
+    <t>Se indico "SI" en la pregunta 28 entonces la pregunta 32 debe estar en las opciones (1,2,3,4,5,98)</t>
+  </si>
+  <si>
+    <t>Si la leña está a una distancia cero, no necesita un medio para transportarla</t>
+  </si>
+  <si>
+    <t>P01D31A = 0 y P01D32 no es (vacio)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28, P01D32</t>
+  </si>
+  <si>
+    <t>P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D32 - 32. ¿Qué medio utiliza para transportar la leña a su vivienda?</t>
+  </si>
+  <si>
+    <t>01D03205</t>
+  </si>
+  <si>
+    <t>Se indico "98 - otros cual" en la pregunta 32 y el especifique debe tener informacion</t>
+  </si>
+  <si>
+    <t>Valores perdidos en la variable P01D32A al indicar "98" en la variable P01D32</t>
+  </si>
+  <si>
+    <t>P01D32 = 98 y P01D32A es vacio</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D32, P01D32A</t>
+  </si>
+  <si>
+    <t>P01D32 - 32. ¿Qué medio utiliza para transportar la leña a su vivienda?
+P01D32A - 32.a Especifique ¿cuál?</t>
+  </si>
+  <si>
+    <t>01D03301</t>
+  </si>
+  <si>
+    <t>Se indico "NO" en la pregunta 28 entonces la pregunta 33 no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Si indico que NO uso leña el mes pasado y responde si hay o no una chimenea o escape de humo</t>
+  </si>
+  <si>
+    <t>P01D28 = 2 y P01D33 esta en (1,2)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28, P01D33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D31A - 31.a ¿A qué distancia en metros se encuentran el lugar de donde traen, recogen o compran la leña con más frecuencia?
+P01D33 - 33. ¿En esta vivienda existe en la cocina una chimenea o una salida de escape para el humo?                    </t>
+  </si>
+  <si>
+    <t>01D03302</t>
+  </si>
+  <si>
+    <t>Se indico "SI" en la pregunta 28 entonces la pregunta 33 debe tener informacion</t>
+  </si>
+  <si>
+    <t>Valores perdidos en la variable P01D32 al indicar "Si" en la variable P01D28</t>
+  </si>
+  <si>
+    <t>P01D28 = 1 y P01D33 es vacio</t>
+  </si>
+  <si>
+    <t>P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D33 - 33. ¿En esta vivienda existe en la cocina una chimenea o una salida de escape para el humo?</t>
+  </si>
+  <si>
+    <t>01D03401</t>
+  </si>
+  <si>
+    <t>Se indico "NO" en la pregunta 28 entonces la pregunta 34 no debe tener informacion</t>
+  </si>
+  <si>
+    <t>Se indico "No" en la pregunta P01D28 y P01D34 no es vacia</t>
+  </si>
+  <si>
+    <t>P01D28 = 2 y P01D34 no es vacio</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28, P01D31A, P01D34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D31A - 31.a ¿A qué distancia en metros se encuentran el lugar de donde traen, recogen o compran la leña con más frecuencia?
+P01D34 - 34. ¿En esta vivienda les agrada usar leña?       </t>
+  </si>
+  <si>
+    <t>Se indico "SI" en la pregunta 28 entonces la pregunta 34 debe tener informacion</t>
+  </si>
+  <si>
+    <t>P01D28 = 1 y P01D34 no esta en (1,2,3,4,5)</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01D28, P01D34</t>
+  </si>
+  <si>
+    <t>P01D28 - 28. El mes pasado, ¿Utilizaron leña para cocinar en este hogar?
+P01D34 - 34. ¿En esta vivienda les agrada usar leña?</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>01E00101</t>
+  </si>
+  <si>
+    <t>Consumo de fuente de energía, sin detallar cuánto compró y pagó</t>
+  </si>
+  <si>
+    <t>Verifique Sección E, Pregunta 1
+Contestó que el mes pasado consumió candelas o veladoras como fuente de energía, pero no indicó que cantidad compró, ni cuanto gastó</t>
+  </si>
+  <si>
+    <t>P01E01 = 1 y ID_FUENTES = 1 y P01E02 no está en (1,2,3,9) y P01E03 no está en (1,2,3,9) y P01E04 no está en (1,2,3,9) y P01E05 no está en (1,2,3,9) y P01E06 no está en (1,2,3,9) y P01E07 no está en (1,2,3,9) y P01E08 es vacío y P01E09 es vacío</t>
+  </si>
+  <si>
+    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P01E01, ID_FUENTES, P01E02, P01E03, P01E04, P01E05, P01E06, P01E07, P01E08, P01E09</t>
+  </si>
+  <si>
+    <t>P01E01 - ¿El mes pasado, utilizó como fuente de energía en su hogar:
+ID_FUENTES - ID_Fuente
+P01E02 - Para cocinar todos sus alimentos?
+P01E03 - Para iluminar por la noche?
+P01E04 - Para calentar agua para bañarse?
+P01E05 - Para hervir agua para beber?
+P01E06 - Para preparar comida para los animales?
+P01E07 - Para preparar el nixtamal?
+P01E08 - ¿Durante el mes pasado: Qué cantidad compró o consumió?
+P01E09 - ¿Durante el mes pasado: Cuánto pagó?</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>01E00102</t>
+  </si>
+  <si>
+    <t>No utilizó fuente de energía y detalló cuánto compró y pagó</t>
+  </si>
+  <si>
+    <t>Verifique Sección E, Pregunta 1
+No respondió que haya utilizado candelas o veladoras como fuente de energía e indicó que cantidad compró y cuánto gastó</t>
+  </si>
+  <si>
+    <t>P01E01 = 2 y ID_FUENTES = 1 y P01E02 está en (1,2,3,9) y P01E03 está en (1,2,3,9) y P01E04 está en (1,2,3,9) y P01E05 está en (1,2,3,9) y P01E06 está en (1,2,3,9) y P01E07 está en (1,2,3,9) y P01E08 no es vacío y P01E09 no es vacío</t>
   </si>
 </sst>
 </file>
@@ -447,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DB754D-6B1A-4228-BEC7-B1A43EBAAD21}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +1480,1931 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s">
+        <v>180</v>
+      </c>
+      <c r="K31" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" t="s">
+        <v>193</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" t="s">
+        <v>199</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" t="s">
+        <v>211</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K37" t="s">
+        <v>217</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s">
+        <v>216</v>
+      </c>
+      <c r="K38" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" t="s">
+        <v>225</v>
+      </c>
+      <c r="I39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" t="s">
+        <v>226</v>
+      </c>
+      <c r="K39" t="s">
+        <v>227</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" t="s">
+        <v>237</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" t="s">
+        <v>241</v>
+      </c>
+      <c r="I42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" t="s">
+        <v>242</v>
+      </c>
+      <c r="K42" t="s">
+        <v>243</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43">
+        <v>31</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" t="s">
+        <v>247</v>
+      </c>
+      <c r="I43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s">
+        <v>242</v>
+      </c>
+      <c r="K43" t="s">
+        <v>243</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" t="s">
+        <v>250</v>
+      </c>
+      <c r="H44" t="s">
+        <v>251</v>
+      </c>
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s">
+        <v>252</v>
+      </c>
+      <c r="K44" t="s">
+        <v>253</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>31</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" t="s">
+        <v>257</v>
+      </c>
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" t="s">
+        <v>259</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" t="s">
+        <v>262</v>
+      </c>
+      <c r="H46" t="s">
+        <v>263</v>
+      </c>
+      <c r="I46" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s">
+        <v>264</v>
+      </c>
+      <c r="K46" t="s">
+        <v>265</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" t="s">
+        <v>268</v>
+      </c>
+      <c r="H47" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s">
+        <v>270</v>
+      </c>
+      <c r="K47" t="s">
+        <v>271</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>272</v>
+      </c>
+      <c r="F48" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" t="s">
+        <v>275</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s">
+        <v>276</v>
+      </c>
+      <c r="K48" t="s">
+        <v>277</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>33</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" t="s">
+        <v>280</v>
+      </c>
+      <c r="H49" t="s">
+        <v>281</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" t="s">
+        <v>283</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" t="s">
+        <v>285</v>
+      </c>
+      <c r="G50" t="s">
+        <v>286</v>
+      </c>
+      <c r="H50" t="s">
+        <v>287</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" t="s">
+        <v>288</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" t="s">
+        <v>290</v>
+      </c>
+      <c r="G51" t="s">
+        <v>291</v>
+      </c>
+      <c r="H51" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s">
+        <v>293</v>
+      </c>
+      <c r="K51" t="s">
+        <v>294</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>34</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52" t="s">
+        <v>295</v>
+      </c>
+      <c r="G52" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s">
+        <v>297</v>
+      </c>
+      <c r="K52" t="s">
+        <v>298</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" t="s">
+        <v>303</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s">
+        <v>304</v>
+      </c>
+      <c r="K53" t="s">
+        <v>305</v>
+      </c>
+      <c r="L53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>299</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>307</v>
+      </c>
+      <c r="F54" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" t="s">
+        <v>310</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s">
+        <v>304</v>
+      </c>
+      <c r="K54" t="s">
+        <v>305</v>
+      </c>
+      <c r="L54" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
